--- a/OpenR8 library-v18.8.0-20180226.xlsx
+++ b/OpenR8 library-v18.8.0-20180226.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropbox (LEADERG)\R8 (限立達內部使用)\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingta\Documents\GitHub\OpenR8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="27045" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15180" windowHeight="5430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="functions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="500">
   <si>
     <t>function name</t>
   </si>
@@ -1570,6 +1570,24 @@
   </si>
   <si>
     <t>Object</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>Socket_Connect</t>
+  </si>
+  <si>
+    <t>Socket_Listen</t>
+  </si>
+  <si>
+    <t>Socket_Write</t>
+  </si>
+  <si>
+    <t>Socket_Read</t>
+  </si>
+  <si>
+    <t>Socket_Close</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1645,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1912,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD108"/>
+  <dimension ref="A1:DD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:A108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -1971,167 +1989,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4" t="s">
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4" t="s">
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4" t="s">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4" t="s">
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4" t="s">
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4" t="s">
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4" t="s">
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4" t="s">
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4" t="s">
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4" t="s">
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4" t="s">
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4" t="s">
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4" t="s">
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4" t="s">
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4" t="s">
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
     </row>
     <row r="2" spans="1:108">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2449,7 +2467,7 @@
       </c>
     </row>
     <row r="3" spans="1:108">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
@@ -2472,7 +2490,7 @@
       </c>
     </row>
     <row r="4" spans="1:108">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>282</v>
       </c>
@@ -2565,7 +2583,7 @@
       </c>
     </row>
     <row r="5" spans="1:108">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>287</v>
       </c>
@@ -2658,7 +2676,7 @@
       </c>
     </row>
     <row r="6" spans="1:108">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
@@ -2753,7 +2771,7 @@
       </c>
     </row>
     <row r="7" spans="1:108">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>289</v>
       </c>
@@ -2846,7 +2864,7 @@
       </c>
     </row>
     <row r="8" spans="1:108">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -2857,7 +2875,7 @@
       </c>
     </row>
     <row r="9" spans="1:108">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>290</v>
       </c>
@@ -2878,7 +2896,7 @@
       </c>
     </row>
     <row r="10" spans="1:108">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
@@ -2913,7 +2931,7 @@
       </c>
     </row>
     <row r="11" spans="1:108">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>295</v>
       </c>
@@ -2946,7 +2964,7 @@
       </c>
     </row>
     <row r="12" spans="1:108">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>296</v>
       </c>
@@ -2967,7 +2985,7 @@
       </c>
     </row>
     <row r="13" spans="1:108">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>297</v>
       </c>
@@ -3024,7 +3042,7 @@
       </c>
     </row>
     <row r="14" spans="1:108">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>54</v>
       </c>
@@ -3081,7 +3099,7 @@
       </c>
     </row>
     <row r="15" spans="1:108">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>58</v>
       </c>
@@ -3114,7 +3132,7 @@
       </c>
     </row>
     <row r="16" spans="1:108">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -3134,7 +3152,7 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>109</v>
       </c>
@@ -3152,7 +3170,7 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>110</v>
       </c>
@@ -3182,7 +3200,7 @@
       </c>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -3212,7 +3230,7 @@
       </c>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>115</v>
       </c>
@@ -3230,7 +3248,7 @@
       </c>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>116</v>
       </c>
@@ -3260,7 +3278,7 @@
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>119</v>
       </c>
@@ -3290,7 +3308,7 @@
       </c>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>121</v>
       </c>
@@ -3320,7 +3338,7 @@
       </c>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>123</v>
       </c>
@@ -3350,7 +3368,7 @@
       </c>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>125</v>
       </c>
@@ -3380,7 +3398,7 @@
       </c>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
@@ -3427,7 +3445,7 @@
       </c>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>303</v>
       </c>
@@ -3472,7 +3490,7 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>306</v>
       </c>
@@ -3517,7 +3535,7 @@
       </c>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>307</v>
       </c>
@@ -3565,7 +3583,7 @@
       </c>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>308</v>
       </c>
@@ -3628,7 +3646,7 @@
       </c>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>309</v>
       </c>
@@ -3709,7 +3727,7 @@
       </c>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>313</v>
       </c>
@@ -3766,7 +3784,7 @@
       </c>
     </row>
     <row r="33" spans="1:107">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>317</v>
       </c>
@@ -3823,7 +3841,7 @@
       </c>
     </row>
     <row r="34" spans="1:107">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>318</v>
       </c>
@@ -3856,7 +3874,7 @@
       </c>
     </row>
     <row r="35" spans="1:107">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>320</v>
       </c>
@@ -3937,7 +3955,7 @@
       </c>
     </row>
     <row r="36" spans="1:107">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>322</v>
       </c>
@@ -3985,7 +4003,7 @@
       </c>
     </row>
     <row r="37" spans="1:107">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>323</v>
       </c>
@@ -4081,7 +4099,7 @@
       </c>
     </row>
     <row r="38" spans="1:107">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>329</v>
       </c>
@@ -4177,7 +4195,7 @@
       </c>
     </row>
     <row r="39" spans="1:107">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>330</v>
       </c>
@@ -4237,7 +4255,7 @@
       </c>
     </row>
     <row r="40" spans="1:107">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>331</v>
       </c>
@@ -4282,7 +4300,7 @@
       </c>
     </row>
     <row r="41" spans="1:107">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>334</v>
       </c>
@@ -4387,7 +4405,7 @@
       </c>
     </row>
     <row r="42" spans="1:107">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" t="s">
         <v>337</v>
       </c>
@@ -4516,7 +4534,7 @@
       </c>
     </row>
     <row r="43" spans="1:107">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>338</v>
       </c>
@@ -4669,7 +4687,7 @@
       </c>
     </row>
     <row r="44" spans="1:107">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>345</v>
       </c>
@@ -4774,7 +4792,7 @@
       </c>
     </row>
     <row r="45" spans="1:107">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>346</v>
       </c>
@@ -4870,7 +4888,7 @@
       </c>
     </row>
     <row r="46" spans="1:107">
-      <c r="A46" s="3"/>
+      <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>350</v>
       </c>
@@ -5131,7 +5149,7 @@
       </c>
     </row>
     <row r="47" spans="1:107">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>369</v>
       </c>
@@ -5191,7 +5209,7 @@
       </c>
     </row>
     <row r="48" spans="1:107">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>370</v>
       </c>
@@ -5239,7 +5257,7 @@
       </c>
     </row>
     <row r="49" spans="1:67">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>371</v>
       </c>
@@ -5302,7 +5320,7 @@
       </c>
     </row>
     <row r="50" spans="1:67">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="B50" t="s">
         <v>372</v>
       </c>
@@ -5347,7 +5365,7 @@
       </c>
     </row>
     <row r="51" spans="1:67">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>375</v>
       </c>
@@ -5452,7 +5470,7 @@
       </c>
     </row>
     <row r="52" spans="1:67">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" t="s">
         <v>377</v>
       </c>
@@ -5497,7 +5515,7 @@
       </c>
     </row>
     <row r="53" spans="1:67">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>379</v>
       </c>
@@ -5548,7 +5566,7 @@
       </c>
     </row>
     <row r="54" spans="1:67">
-      <c r="A54" s="3"/>
+      <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>380</v>
       </c>
@@ -5581,7 +5599,7 @@
       </c>
     </row>
     <row r="55" spans="1:67">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>382</v>
       </c>
@@ -5638,7 +5656,7 @@
       </c>
     </row>
     <row r="56" spans="1:67">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>385</v>
       </c>
@@ -5803,7 +5821,7 @@
       </c>
     </row>
     <row r="57" spans="1:67">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>396</v>
       </c>
@@ -5872,7 +5890,7 @@
       </c>
     </row>
     <row r="58" spans="1:67">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
       <c r="B58" t="s">
         <v>400</v>
       </c>
@@ -5965,7 +5983,7 @@
       </c>
     </row>
     <row r="59" spans="1:67">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>408</v>
       </c>
@@ -6010,7 +6028,7 @@
       </c>
     </row>
     <row r="60" spans="1:67">
-      <c r="A60" s="3"/>
+      <c r="A60" s="4"/>
       <c r="B60" t="s">
         <v>411</v>
       </c>
@@ -6091,7 +6109,7 @@
       </c>
     </row>
     <row r="61" spans="1:67">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>416</v>
       </c>
@@ -6136,7 +6154,7 @@
       </c>
     </row>
     <row r="62" spans="1:67">
-      <c r="A62" s="3"/>
+      <c r="A62" s="4"/>
       <c r="B62" t="s">
         <v>419</v>
       </c>
@@ -6169,7 +6187,7 @@
       </c>
     </row>
     <row r="63" spans="1:67">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
       <c r="B63" t="s">
         <v>421</v>
       </c>
@@ -6226,7 +6244,7 @@
       </c>
     </row>
     <row r="64" spans="1:67">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
       <c r="B64" t="s">
         <v>422</v>
       </c>
@@ -6271,7 +6289,7 @@
       </c>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>425</v>
       </c>
@@ -6355,7 +6373,7 @@
       </c>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="3"/>
+      <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>429</v>
       </c>
@@ -6412,7 +6430,7 @@
       </c>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
       <c r="B67" t="s">
         <v>430</v>
       </c>
@@ -6457,7 +6475,7 @@
       </c>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="3"/>
+      <c r="A68" s="4"/>
       <c r="B68" t="s">
         <v>431</v>
       </c>
@@ -6490,7 +6508,7 @@
       </c>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
       <c r="B69" t="s">
         <v>432</v>
       </c>
@@ -6559,7 +6577,7 @@
       </c>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="3"/>
+      <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>433</v>
       </c>
@@ -6616,7 +6634,7 @@
       </c>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>436</v>
       </c>
@@ -6661,7 +6679,7 @@
       </c>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B72" t="s">
@@ -6681,7 +6699,7 @@
       </c>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
       <c r="B73" t="s">
         <v>128</v>
       </c>
@@ -6699,7 +6717,7 @@
       </c>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="3"/>
+      <c r="A74" s="4"/>
       <c r="B74" t="s">
         <v>129</v>
       </c>
@@ -6729,7 +6747,7 @@
       </c>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>131</v>
       </c>
@@ -6747,7 +6765,7 @@
       </c>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="3"/>
+      <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>132</v>
       </c>
@@ -6777,7 +6795,7 @@
       </c>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B77" t="s">
@@ -6824,7 +6842,7 @@
       </c>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="3"/>
+      <c r="A78" s="4"/>
       <c r="B78" t="s">
         <v>442</v>
       </c>
@@ -6869,7 +6887,7 @@
       </c>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
       <c r="B79" t="s">
         <v>443</v>
       </c>
@@ -6914,7 +6932,7 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="3"/>
+      <c r="A80" s="4"/>
       <c r="B80" t="s">
         <v>447</v>
       </c>
@@ -6974,7 +6992,7 @@
       </c>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
       <c r="B81" t="s">
         <v>448</v>
       </c>
@@ -7019,7 +7037,7 @@
       </c>
     </row>
     <row r="82" spans="1:27">
-      <c r="A82" s="3"/>
+      <c r="A82" s="4"/>
       <c r="B82" t="s">
         <v>449</v>
       </c>
@@ -7064,7 +7082,7 @@
       </c>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
       <c r="B83" t="s">
         <v>450</v>
       </c>
@@ -7097,7 +7115,7 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="3"/>
+      <c r="A84" s="4"/>
       <c r="B84" t="s">
         <v>451</v>
       </c>
@@ -7142,7 +7160,7 @@
       </c>
     </row>
     <row r="85" spans="1:27">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
       <c r="B85" t="s">
         <v>455</v>
       </c>
@@ -7202,7 +7220,7 @@
       </c>
     </row>
     <row r="86" spans="1:27">
-      <c r="A86" s="3"/>
+      <c r="A86" s="4"/>
       <c r="B86" t="s">
         <v>456</v>
       </c>
@@ -7247,7 +7265,7 @@
       </c>
     </row>
     <row r="87" spans="1:27">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
       <c r="B87" t="s">
         <v>457</v>
       </c>
@@ -7286,7 +7304,7 @@
       </c>
     </row>
     <row r="88" spans="1:27">
-      <c r="A88" s="3"/>
+      <c r="A88" s="4"/>
       <c r="B88" t="s">
         <v>459</v>
       </c>
@@ -7334,7 +7352,7 @@
       </c>
     </row>
     <row r="89" spans="1:27">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
       <c r="B89" t="s">
         <v>460</v>
       </c>
@@ -7379,7 +7397,7 @@
       </c>
     </row>
     <row r="90" spans="1:27">
-      <c r="A90" s="3"/>
+      <c r="A90" s="4"/>
       <c r="B90" t="s">
         <v>461</v>
       </c>
@@ -7412,7 +7430,7 @@
       </c>
     </row>
     <row r="91" spans="1:27">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>462</v>
       </c>
@@ -7445,7 +7463,7 @@
       </c>
     </row>
     <row r="92" spans="1:27">
-      <c r="A92" s="3"/>
+      <c r="A92" s="4"/>
       <c r="B92" t="s">
         <v>465</v>
       </c>
@@ -7478,7 +7496,7 @@
       </c>
     </row>
     <row r="93" spans="1:27">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
       <c r="B93" t="s">
         <v>467</v>
       </c>
@@ -7547,7 +7565,7 @@
       </c>
     </row>
     <row r="94" spans="1:27">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>468</v>
       </c>
       <c r="B94" t="s">
@@ -7591,7 +7609,7 @@
       </c>
     </row>
     <row r="95" spans="1:27">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>473</v>
       </c>
@@ -7633,7 +7651,7 @@
       </c>
     </row>
     <row r="96" spans="1:27">
-      <c r="A96" s="3"/>
+      <c r="A96" s="4"/>
       <c r="B96" t="s">
         <v>471</v>
       </c>
@@ -7648,7 +7666,7 @@
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
       <c r="B97" t="s">
         <v>469</v>
       </c>
@@ -7663,7 +7681,7 @@
       </c>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="3"/>
+      <c r="A98" s="4"/>
       <c r="B98" t="s">
         <v>475</v>
       </c>
@@ -7678,13 +7696,13 @@
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="3"/>
+      <c r="A99" s="4"/>
       <c r="B99" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="3"/>
+      <c r="A100" s="4"/>
       <c r="B100" t="s">
         <v>470</v>
       </c>
@@ -7699,7 +7717,7 @@
       </c>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="4" t="s">
         <v>482</v>
       </c>
       <c r="B101" t="s">
@@ -7728,7 +7746,7 @@
       </c>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="3"/>
+      <c r="A102" s="4"/>
       <c r="B102" t="s">
         <v>479</v>
       </c>
@@ -7755,7 +7773,7 @@
       </c>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
       <c r="B103" t="s">
         <v>483</v>
       </c>
@@ -7791,7 +7809,7 @@
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
       <c r="B104" t="s">
         <v>485</v>
       </c>
@@ -7827,7 +7845,7 @@
       </c>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
       <c r="B105" t="s">
         <v>484</v>
       </c>
@@ -7863,7 +7881,7 @@
       </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="3"/>
+      <c r="A106" s="4"/>
       <c r="B106" t="s">
         <v>487</v>
       </c>
@@ -7899,7 +7917,7 @@
       </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
       <c r="B107" t="s">
         <v>488</v>
       </c>
@@ -7935,7 +7953,7 @@
       </c>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="3"/>
+      <c r="A108" s="4"/>
       <c r="B108" t="s">
         <v>492</v>
       </c>
@@ -7970,26 +7988,41 @@
         <v>25</v>
       </c>
     </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B109" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="4"/>
+      <c r="B110" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="4"/>
+      <c r="B111" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="4"/>
+      <c r="B112" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4"/>
+      <c r="B113" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BB1:BF1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A77:A93"/>
-    <mergeCell ref="A26:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="CZ1:DD1"/>
-    <mergeCell ref="BV1:BZ1"/>
-    <mergeCell ref="CA1:CE1"/>
-    <mergeCell ref="CF1:CJ1"/>
-    <mergeCell ref="CK1:CO1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CU1:CY1"/>
+  <mergeCells count="35">
+    <mergeCell ref="A109:A113"/>
     <mergeCell ref="A101:A108"/>
     <mergeCell ref="BQ1:BU1"/>
     <mergeCell ref="A94:A100"/>
@@ -8006,6 +8039,24 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="BG1:BK1"/>
     <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="CZ1:DD1"/>
+    <mergeCell ref="BV1:BZ1"/>
+    <mergeCell ref="CA1:CE1"/>
+    <mergeCell ref="CF1:CJ1"/>
+    <mergeCell ref="CK1:CO1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CU1:CY1"/>
+    <mergeCell ref="A77:A93"/>
+    <mergeCell ref="A26:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BB1:BF1"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OpenR8 library-v18.8.0-20180226.xlsx
+++ b/OpenR8 library-v18.8.0-20180226.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="502">
   <si>
     <t>function name</t>
   </si>
@@ -1509,12 +1509,6 @@
     <t>CGI_PrintInfo</t>
   </si>
   <si>
-    <t>CGI_GetString</t>
-  </si>
-  <si>
-    <t>CGI_GetBinary</t>
-  </si>
-  <si>
     <t>CGI_PrintBinary</t>
   </si>
   <si>
@@ -1588,6 +1582,18 @@
   </si>
   <si>
     <t>Socket_Close</t>
+  </si>
+  <si>
+    <t>CGI_GetEnvString</t>
+  </si>
+  <si>
+    <t>CGI_GetPostString</t>
+  </si>
+  <si>
+    <t>CGI_GetGetString</t>
+  </si>
+  <si>
+    <t>CGI_GetPostFile</t>
   </si>
 </sst>
 </file>
@@ -1930,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD113"/>
+  <dimension ref="A1:DD115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -1990,7 +1996,7 @@
   <sheetData>
     <row r="1" spans="1:108">
       <c r="A1" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -7569,7 +7575,7 @@
         <v>468</v>
       </c>
       <c r="B94" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="D94" t="s">
         <v>387</v>
@@ -7581,10 +7587,10 @@
         <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J94" t="s">
         <v>10</v>
@@ -7596,7 +7602,7 @@
         <v>293</v>
       </c>
       <c r="N94" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O94" t="s">
         <v>6</v>
@@ -7611,7 +7617,7 @@
     <row r="95" spans="1:27">
       <c r="A95" s="4"/>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="D95" t="s">
         <v>387</v>
@@ -7623,7 +7629,7 @@
         <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I95" t="s">
         <v>60</v>
@@ -7638,7 +7644,7 @@
         <v>293</v>
       </c>
       <c r="N95" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O95" t="s">
         <v>6</v>
@@ -7653,7 +7659,7 @@
     <row r="96" spans="1:27">
       <c r="A96" s="4"/>
       <c r="B96" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D96" t="s">
         <v>387</v>
@@ -7664,118 +7670,148 @@
       <c r="F96" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="H96" t="s">
+        <v>487</v>
+      </c>
+      <c r="I96" t="s">
+        <v>60</v>
+      </c>
+      <c r="J96" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" t="s">
+        <v>45</v>
+      </c>
+      <c r="L96" t="s">
+        <v>293</v>
+      </c>
+      <c r="N96" t="s">
+        <v>475</v>
+      </c>
+      <c r="O96" t="s">
+        <v>6</v>
+      </c>
+      <c r="P96" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="4"/>
       <c r="B97" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="D97" t="s">
+        <v>387</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>487</v>
+      </c>
+      <c r="I97" t="s">
         <v>60</v>
       </c>
-      <c r="E97" t="s">
+      <c r="J97" t="s">
         <v>6</v>
       </c>
-      <c r="F97" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="K97" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97" t="s">
+        <v>293</v>
+      </c>
+      <c r="N97" t="s">
+        <v>475</v>
+      </c>
+      <c r="O97" t="s">
+        <v>6</v>
+      </c>
+      <c r="P97" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="4"/>
       <c r="B98" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D98" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="4"/>
       <c r="B99" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+        <v>469</v>
+      </c>
+      <c r="D99" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="4"/>
       <c r="B100" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
-      <c r="A101" s="4" t="s">
-        <v>482</v>
-      </c>
+    <row r="101" spans="1:17">
+      <c r="A101" s="4"/>
       <c r="B101" t="s">
-        <v>478</v>
-      </c>
-      <c r="D101" t="s">
-        <v>387</v>
-      </c>
-      <c r="E101" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" t="s">
-        <v>45</v>
-      </c>
-      <c r="I101" t="s">
-        <v>480</v>
-      </c>
-      <c r="J101" t="s">
-        <v>6</v>
-      </c>
-      <c r="K101" t="s">
-        <v>25</v>
-      </c>
-      <c r="L101" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="4"/>
       <c r="B102" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D102" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
-      </c>
-      <c r="I102" t="s">
-        <v>481</v>
-      </c>
-      <c r="J102" t="s">
-        <v>6</v>
-      </c>
-      <c r="K102" t="s">
         <v>25</v>
       </c>
-      <c r="L102" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" s="4"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="B103" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D103" t="s">
         <v>387</v>
@@ -7786,32 +7822,23 @@
       <c r="F103" t="s">
         <v>45</v>
       </c>
-      <c r="H103" t="s">
-        <v>486</v>
-      </c>
       <c r="I103" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J103" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K103" t="s">
-        <v>45</v>
-      </c>
-      <c r="N103" t="s">
-        <v>481</v>
-      </c>
-      <c r="O103" t="s">
-        <v>6</v>
-      </c>
-      <c r="P103" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="L103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="4"/>
       <c r="B104" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D104" t="s">
         <v>387</v>
@@ -7822,32 +7849,23 @@
       <c r="F104" t="s">
         <v>45</v>
       </c>
-      <c r="H104" t="s">
-        <v>486</v>
-      </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>479</v>
       </c>
       <c r="J104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K104" t="s">
-        <v>45</v>
-      </c>
-      <c r="N104" t="s">
-        <v>481</v>
-      </c>
-      <c r="O104" t="s">
-        <v>6</v>
-      </c>
-      <c r="P104" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="L104" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="4"/>
       <c r="B105" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D105" t="s">
         <v>387</v>
@@ -7859,19 +7877,19 @@
         <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I105" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="J105" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K105" t="s">
         <v>45</v>
       </c>
       <c r="N105" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O105" t="s">
         <v>6</v>
@@ -7880,10 +7898,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:17">
       <c r="A106" s="4"/>
       <c r="B106" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D106" t="s">
         <v>387</v>
@@ -7895,19 +7913,19 @@
         <v>45</v>
       </c>
       <c r="H106" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I106" t="s">
-        <v>476</v>
+        <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N106" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O106" t="s">
         <v>6</v>
@@ -7916,10 +7934,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:17">
       <c r="A107" s="4"/>
       <c r="B107" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D107" t="s">
         <v>387</v>
@@ -7931,19 +7949,19 @@
         <v>45</v>
       </c>
       <c r="H107" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I107" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K107" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N107" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O107" t="s">
         <v>6</v>
@@ -7952,10 +7970,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:17">
       <c r="A108" s="4"/>
       <c r="B108" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D108" t="s">
         <v>387</v>
@@ -7967,19 +7985,19 @@
         <v>45</v>
       </c>
       <c r="H108" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I108" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
       <c r="J108" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K108" t="s">
         <v>25</v>
       </c>
       <c r="N108" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O108" t="s">
         <v>6</v>
@@ -7988,44 +8006,116 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
-      <c r="A109" s="4" t="s">
-        <v>494</v>
-      </c>
+    <row r="109" spans="1:17">
+      <c r="A109" s="4"/>
       <c r="B109" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>486</v>
+      </c>
+      <c r="D109" t="s">
+        <v>387</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>484</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" t="s">
+        <v>479</v>
+      </c>
+      <c r="O109" t="s">
+        <v>6</v>
+      </c>
+      <c r="P109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="4"/>
       <c r="B110" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="A111" s="4"/>
+        <v>490</v>
+      </c>
+      <c r="D110" t="s">
+        <v>387</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>484</v>
+      </c>
+      <c r="I110" t="s">
+        <v>60</v>
+      </c>
+      <c r="J110" t="s">
+        <v>6</v>
+      </c>
+      <c r="K110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" t="s">
+        <v>479</v>
+      </c>
+      <c r="O110" t="s">
+        <v>6</v>
+      </c>
+      <c r="P110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="4" t="s">
+        <v>492</v>
+      </c>
       <c r="B111" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4"/>
       <c r="B113" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4"/>
+      <c r="B114" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4"/>
+      <c r="B115" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A101:A108"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A103:A110"/>
     <mergeCell ref="BQ1:BU1"/>
-    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="A94:A102"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="X1:AB1"/>
@@ -8146,7 +8236,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8154,7 +8244,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/OpenR8 library-v18.8.0-20180226.xlsx
+++ b/OpenR8 library-v18.8.0-20180226.xlsx
@@ -1939,7 +1939,7 @@
   <dimension ref="A1:DD115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+      <selection activeCell="A94" sqref="A94:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -7650,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="P95" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q95" t="s">
         <v>293</v>
@@ -7692,7 +7692,7 @@
         <v>6</v>
       </c>
       <c r="P96" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q96" t="s">
         <v>293</v>
@@ -7734,7 +7734,7 @@
         <v>6</v>
       </c>
       <c r="P97" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q97" t="s">
         <v>293</v>
